--- a/items_data/gamestop.xlsx
+++ b/items_data/gamestop.xlsx
@@ -460,16 +460,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="35.98" customWidth="1" style="3" min="1" max="1"/>
-    <col width="16.39" customWidth="1" style="3" min="2" max="2"/>
+    <col width="49.05" customWidth="1" style="3" min="1" max="1"/>
+    <col width="11.71" customWidth="1" style="3" min="2" max="2"/>
     <col width="11.52" customWidth="1" style="3" min="3" max="3"/>
     <col width="21.26" customWidth="1" style="3" min="4" max="4"/>
     <col width="37.11" customWidth="1" style="3" min="5" max="5"/>
@@ -484,57 +484,87 @@
       </c>
       <c r="B1" s="5" t="inlineStr">
         <is>
+          <t>Short Name</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
           <t>Styles</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>Img path</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Short URL</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="4">
-      <c r="A2" s="3" t="inlineStr">
+    <row r="2" ht="35.05" customHeight="1" s="4">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Squishmallow Corgicorn Only at GameStop</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Corgicorn </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://www.gamestop.com/toys-collectibles/toys/plush/products/squishmallow-corgicorn-only-at-gamestop/11137112.html</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Squishmallow-Corgicorn-Only-at-GameStop.jpg</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>GameStop</t>
         </is>

--- a/items_data/gamestop.xlsx
+++ b/items_data/gamestop.xlsx
@@ -524,47 +524,47 @@
       </c>
     </row>
     <row r="2" ht="35.05" customHeight="1" s="4">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Squishmallow Corgicorn Only at GameStop</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Corgicorn </t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>14.99</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>https://www.gamestop.com/toys-collectibles/toys/plush/products/squishmallow-corgicorn-only-at-gamestop/11137112.html</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Squishmallow-Corgicorn-Only-at-GameStop.jpg</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>GameStop</t>
         </is>

--- a/items_data/gamestop.xlsx
+++ b/items_data/gamestop.xlsx
@@ -524,47 +524,47 @@
       </c>
     </row>
     <row r="2" ht="35.05" customHeight="1" s="4">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Squishmallow Corgicorn Only at GameStop</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Corgicorn </t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>14.99</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://www.gamestop.com/toys-collectibles/toys/plush/products/squishmallow-corgicorn-only-at-gamestop/11137112.html</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Squishmallow-Corgicorn-Only-at-GameStop.jpg</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>GameStop</t>
         </is>
